--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,37 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\AI\X-Puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9526D12C-A53C-4A1E-8929-71276CC5D32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53079082-9250-4081-A0D3-11F2F0BECA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{6E181065-8B70-490B-ACD8-A518D80DC59B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6E181065-8B70-490B-ACD8-A518D80DC59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$9:$D$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$I$9:$I$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$9:$D$19</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$9:$E$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$8</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$9:$F$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$9:$G$19</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$9:$H$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$9:$E$19</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$I$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$I$9:$I$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$9:$F$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$9:$G$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$9:$H$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$I$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Algorithm</t>
   </si>
@@ -100,6 +77,42 @@
   </si>
   <si>
     <t>Astar-H2</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>5x5</t>
+  </si>
+  <si>
+    <t>2x3</t>
+  </si>
+  <si>
+    <t>4x5</t>
+  </si>
+  <si>
+    <t>2x4</t>
+  </si>
+  <si>
+    <t>Average Cost</t>
+  </si>
+  <si>
+    <t>Average Length Of Solution</t>
+  </si>
+  <si>
+    <t>Average Length Of Search</t>
+  </si>
+  <si>
+    <t>Average Exuction Time</t>
+  </si>
+  <si>
+    <t>4X3</t>
   </si>
 </sst>
 </file>
@@ -428,15 +441,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -457,6 +461,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,7 +906,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$8</c15:sqref>
@@ -956,7 +969,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1044,7 +1057,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-18F6-4083-BFFF-3EB5F6597337}"/>
                   </c:ext>
@@ -1057,7 +1070,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$8</c15:sqref>
@@ -1120,7 +1133,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1208,7 +1221,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-18F6-4083-BFFF-3EB5F6597337}"/>
                   </c:ext>
@@ -1221,7 +1234,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$8</c15:sqref>
@@ -1284,7 +1297,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1372,7 +1385,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-18F6-4083-BFFF-3EB5F6597337}"/>
                   </c:ext>
@@ -1929,7 +1942,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$8</c15:sqref>
@@ -1992,7 +2005,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2080,7 +2093,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-945B-4047-8F8F-07F25C28D1BA}"/>
                   </c:ext>
@@ -2093,7 +2106,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$8</c15:sqref>
@@ -2156,7 +2169,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2244,7 +2257,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-945B-4047-8F8F-07F25C28D1BA}"/>
                   </c:ext>
@@ -2257,7 +2270,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$8</c15:sqref>
@@ -2320,7 +2333,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2408,7 +2421,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-945B-4047-8F8F-07F25C28D1BA}"/>
                   </c:ext>
@@ -3142,7 +3155,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C79E-4F7C-8176-22BAFD946B95}"/>
                   </c:ext>
@@ -3306,7 +3319,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C79E-4F7C-8176-22BAFD946B95}"/>
                   </c:ext>
@@ -3470,7 +3483,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C79E-4F7C-8176-22BAFD946B95}"/>
                   </c:ext>
@@ -4054,7 +4067,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$8</c15:sqref>
@@ -4117,7 +4130,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4205,7 +4218,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2778-4400-98FF-A424E67ED9C3}"/>
                   </c:ext>
@@ -4369,7 +4382,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2778-4400-98FF-A424E67ED9C3}"/>
                   </c:ext>
@@ -4533,7 +4546,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-2778-4400-98FF-A424E67ED9C3}"/>
                   </c:ext>
@@ -5119,7 +5132,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$8</c15:sqref>
@@ -5182,7 +5195,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5286,7 +5299,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-FECB-49BA-9812-2B55FF4E5601}"/>
                   </c:ext>
@@ -5466,7 +5479,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FECB-49BA-9812-2B55FF4E5601}"/>
                   </c:ext>
@@ -5646,7 +5659,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FECB-49BA-9812-2B55FF4E5601}"/>
                   </c:ext>
@@ -5760,6 +5773,4152 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="628003648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-598E-4C4C-BCB0-4C01D914AE12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.08</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-598E-4C4C-BCB0-4C01D914AE12}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33.659999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>523.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>721.46600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6644</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-598E-4C4C-BCB0-4C01D914AE12}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Exuction Time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.5901730000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9993999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.1455200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.0235</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>600.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600.04</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-598E-4C4C-BCB0-4C01D914AE12}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-598E-4C4C-BCB0-4C01D914AE12}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Length Of Solution</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89D9-4D80-8229-7CF6EC93F45E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.132999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-89D9-4D80-8229-7CF6EC93F45E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33.659999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>523.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>721.46600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6644</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-89D9-4D80-8229-7CF6EC93F45E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Exuction Time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.5901730000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9993999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.1455200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.0235</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>600.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600.04</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-89D9-4D80-8229-7CF6EC93F45E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-89D9-4D80-8229-7CF6EC93F45E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Exuction Time</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5901730000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9993999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1455200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.04</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CDD-45B0-90B9-53F9B648EFFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.132999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8CDD-45B0-90B9-53F9B648EFFB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.08</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8CDD-45B0-90B9-53F9B648EFFB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33.659999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>523.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>721.46600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6644</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8CDD-45B0-90B9-53F9B648EFFB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8CDD-45B0-90B9-53F9B648EFFB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Length Of Search</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>721.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6644</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54F4-4D46-888F-5C2C381E2D41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.132999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-54F4-4D46-888F-5C2C381E2D41}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.08</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-54F4-4D46-888F-5C2C381E2D41}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Exuction Time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.5901730000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9993999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.1455200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.0235</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>600.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600.04</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-54F4-4D46-888F-5C2C381E2D41}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-54F4-4D46-888F-5C2C381E2D41}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6015,6 +10174,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8028,6 +12347,2018 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8713,6 +15044,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACFB105-8D5E-4510-A921-CCA6AB4A267B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F589B0F-EB0F-4F45-830E-E3B2193E83A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C93879E-9134-4789-9A19-255CD35347E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1C953B-E122-4B31-9B68-C12E3D425220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9588,12 +16074,870 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBB0530-1872-46A4-869E-41F321E77031}">
   <dimension ref="C7:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I19" sqref="E19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9621,31 +16965,31 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>37</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>29</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>113982</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <v>2832.2505000000001</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7">
@@ -9665,8 +17009,8 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9">
@@ -9684,10 +17028,10 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5">
@@ -9707,8 +17051,8 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="11">
@@ -9728,10 +17072,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5">
@@ -9751,8 +17095,8 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="11">
@@ -9772,10 +17116,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
@@ -9795,8 +17139,8 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="11">
@@ -9816,10 +17160,10 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="5">
@@ -9839,8 +17183,8 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11">
@@ -9871,4 +17215,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A232CB68-5273-4957-886E-AE5A69DEB70D}">
+  <dimension ref="C4:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
+        <v>6.94</v>
+      </c>
+      <c r="F5">
+        <v>13.12</v>
+      </c>
+      <c r="G5">
+        <v>15.132999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>3.08</v>
+      </c>
+      <c r="E6">
+        <v>6.06</v>
+      </c>
+      <c r="F6">
+        <v>11.48</v>
+      </c>
+      <c r="G6">
+        <v>13.2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="F7">
+        <v>523.01</v>
+      </c>
+      <c r="G7">
+        <v>721.46600000000001</v>
+      </c>
+      <c r="I7">
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>4.5901730000000003E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.9993999999999996E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.1455200000000003</v>
+      </c>
+      <c r="G8">
+        <v>10.0235</v>
+      </c>
+      <c r="H8">
+        <v>600.04</v>
+      </c>
+      <c r="I8">
+        <v>600.04</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\AI\X-Puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53079082-9250-4081-A0D3-11F2F0BECA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D7E91B-CD91-4B0A-9A42-83426C890036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6E181065-8B70-490B-ACD8-A518D80DC59B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6E181065-8B70-490B-ACD8-A518D80DC59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Algorithm</t>
   </si>
@@ -109,10 +110,10 @@
     <t>Average Length Of Search</t>
   </si>
   <si>
-    <t>Average Exuction Time</t>
+    <t>4X3</t>
   </si>
   <si>
-    <t>4X3</t>
+    <t>Average Execution Time</t>
   </si>
 </sst>
 </file>
@@ -1554,6 +1555,4299 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32F2-4134-8CA2-C1C969C52763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.08</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>113.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-32F2-4134-8CA2-C1C969C52763}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33.659999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>523.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>721.46600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1012.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7240</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-32F2-4134-8CA2-C1C969C52763}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Execution Time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.5900000000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9993999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.1455200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.0235</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.1366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-32F2-4134-8CA2-C1C969C52763}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-32F2-4134-8CA2-C1C969C52763}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Length Of Solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74FE-4957-9B28-C1EA5D266552}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.132999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-74FE-4957-9B28-C1EA5D266552}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33.659999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>523.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>721.46600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1012.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7240</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-74FE-4957-9B28-C1EA5D266552}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Execution Time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.5900000000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9993999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.1455200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.0235</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.1366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-74FE-4957-9B28-C1EA5D266552}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-74FE-4957-9B28-C1EA5D266552}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5900000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9993999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1455200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.1366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1E6-473D-9483-4214F7A4101B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.132999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F1E6-473D-9483-4214F7A4101B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.08</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>113.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F1E6-473D-9483-4214F7A4101B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Search</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>33.659999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>523.01</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>721.46600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1012.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7240</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F1E6-473D-9483-4214F7A4101B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F1E6-473D-9483-4214F7A4101B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Length Of Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$D$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2x4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4X3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4x4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4x5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>721.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86B6-4A2B-9A2D-04EEE6B3287A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539497679"/>
+        <c:axId val="579272191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>13.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.132999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-86B6-4A2B-9A2D-04EEE6B3287A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Length Of Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>3.08</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.48</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>113.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-86B6-4A2B-9A2D-04EEE6B3287A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average Execution Time</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>4.5900000000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.9993999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.1455200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.0235</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.1366</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-86B6-4A2B-9A2D-04EEE6B3287A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Solution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2x2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2x3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2x4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3x3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4X3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4x4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4x5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5x5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet2 (2)'!$D$9:$K$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-86B6-4A2B-9A2D-04EEE6B3287A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579272191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579272191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6017,6 +10311,12 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6198,6 +10498,12 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6214,7 +10520,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$C$7</c15:sqref>
@@ -6277,7 +10583,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6299,7 +10605,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
@@ -6337,7 +10643,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$7:$K$7</c15:sqref>
@@ -6359,13 +10665,22 @@
                       <c:pt idx="3">
                         <c:v>721.46600000000001</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7119</c:v>
+                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>6644</c:v>
+                        <c:v>7240</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7239</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-598E-4C4C-BCB0-4C01D914AE12}"/>
                   </c:ext>
@@ -6378,7 +10693,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$C$8</c15:sqref>
@@ -6388,7 +10703,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Average Exuction Time</c:v>
+                        <c:v>Average Execution Time</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6441,7 +10756,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6463,7 +10778,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
@@ -6501,7 +10816,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$8:$K$8</c15:sqref>
@@ -6512,7 +10827,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>4.5901730000000003E-3</c:v>
+                        <c:v>4.5900000000000003E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>7.9993999999999996E-2</c:v>
@@ -6524,15 +10839,21 @@
                         <c:v>10.0235</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>600.04</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>600.04</c:v>
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>600</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-598E-4C4C-BCB0-4C01D914AE12}"/>
                   </c:ext>
@@ -6545,7 +10866,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$C$9</c15:sqref>
@@ -6608,7 +10929,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6630,7 +10951,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$4:$K$4</c15:sqref>
@@ -6668,7 +10989,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$D$9:$K$9</c15:sqref>
@@ -6690,10 +11011,22 @@
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-598E-4C4C-BCB0-4C01D914AE12}"/>
                   </c:ext>
@@ -7054,6 +11387,12 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -7236,6 +11575,12 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7397,13 +11742,22 @@
                       <c:pt idx="3">
                         <c:v>721.46600000000001</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7119</c:v>
+                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>6644</c:v>
+                        <c:v>7240</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7239</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-89D9-4D80-8229-7CF6EC93F45E}"/>
                   </c:ext>
@@ -7426,7 +11780,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Average Exuction Time</c:v>
+                        <c:v>Average Execution Time</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7550,7 +11904,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>4.5901730000000003E-3</c:v>
+                        <c:v>4.5900000000000003E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>7.9993999999999996E-2</c:v>
@@ -7562,15 +11916,21 @@
                         <c:v>10.0235</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>600.04</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>600.04</c:v>
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>600</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-89D9-4D80-8229-7CF6EC93F45E}"/>
                   </c:ext>
@@ -7728,10 +12088,22 @@
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-89D9-4D80-8229-7CF6EC93F45E}"/>
                   </c:ext>
@@ -7961,7 +12333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Exuction Time</c:v>
+                  <c:v>Average Execution Time</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -8074,7 +12446,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5901730000000003E-3</c:v>
+                  <c:v>4.5900000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.9993999999999996E-2</c:v>
@@ -8086,10 +12458,16 @@
                   <c:v>10.0235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600.04</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.04</c:v>
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -8272,6 +12650,12 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8439,10 +12823,16 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8CDD-45B0-90B9-53F9B648EFFB}"/>
                   </c:ext>
@@ -8600,13 +12990,22 @@
                       <c:pt idx="3">
                         <c:v>721.46600000000001</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7119</c:v>
+                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>6644</c:v>
+                        <c:v>7240</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7239</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CDD-45B0-90B9-53F9B648EFFB}"/>
                   </c:ext>
@@ -8764,10 +13163,22 @@
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8CDD-45B0-90B9-53F9B648EFFB}"/>
                   </c:ext>
@@ -9122,8 +13533,17 @@
                 <c:pt idx="3">
                   <c:v>721.46600000000001</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>7119</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>6644</c:v>
+                  <c:v>7240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7239</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -9307,6 +13727,12 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9474,10 +13900,16 @@
                       <c:pt idx="5">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-54F4-4D46-888F-5C2C381E2D41}"/>
                   </c:ext>
@@ -9500,7 +13932,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Average Exuction Time</c:v>
+                        <c:v>Average Execution Time</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9624,7 +14056,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>4.5901730000000003E-3</c:v>
+                        <c:v>4.5900000000000003E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>7.9993999999999996E-2</c:v>
@@ -9636,15 +14068,21 @@
                         <c:v>10.0235</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>600.04</c:v>
+                        <c:v>600</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>600.04</c:v>
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>600</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-54F4-4D46-888F-5C2C381E2D41}"/>
                   </c:ext>
@@ -9802,10 +14240,22 @@
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-54F4-4D46-888F-5C2C381E2D41}"/>
                   </c:ext>
@@ -9975,6 +14425,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10837,6 +15447,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15130,14 +21752,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -15185,6 +21807,163 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1C953B-E122-4B31-9B68-C12E3D425220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1E1B0C-40C1-4754-BA6C-A955E64F70EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A3542-BE29-42B4-BF5E-363CF459373B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8367C888-A1F6-4EBB-A2E4-2CBE83534FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD342818-1533-4104-A9E9-20D115FED398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16932,6 +23711,864 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride7.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride8.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBB0530-1872-46A4-869E-41F321E77031}">
   <dimension ref="C7:I20"/>
@@ -17221,8 +24858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A232CB68-5273-4957-886E-AE5A69DEB70D}">
   <dimension ref="C4:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17244,7 +24881,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -17278,6 +24915,12 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -17301,6 +24944,12 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -17318,16 +24967,25 @@
       <c r="G7">
         <v>721.46600000000001</v>
       </c>
+      <c r="H7">
+        <v>7119</v>
+      </c>
       <c r="I7">
-        <v>6644</v>
+        <v>7240</v>
+      </c>
+      <c r="J7">
+        <v>7239</v>
+      </c>
+      <c r="K7">
+        <v>7239</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>4.5901730000000003E-3</v>
+        <v>4.5900000000000003E-3</v>
       </c>
       <c r="E8">
         <v>7.9993999999999996E-2</v>
@@ -17339,10 +24997,16 @@
         <v>10.0235</v>
       </c>
       <c r="H8">
-        <v>600.04</v>
+        <v>600</v>
       </c>
       <c r="I8">
-        <v>600.04</v>
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <v>600</v>
+      </c>
+      <c r="K8">
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
@@ -17361,6 +25025,209 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A836FF-27D6-405C-8BF8-C0702FFE7B63}">
+  <dimension ref="C4:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
+        <v>6.94</v>
+      </c>
+      <c r="F5">
+        <v>13.12</v>
+      </c>
+      <c r="G5">
+        <v>15.132999999999999</v>
+      </c>
+      <c r="H5">
+        <v>136</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>3.08</v>
+      </c>
+      <c r="E6">
+        <v>6.06</v>
+      </c>
+      <c r="F6">
+        <v>11.48</v>
+      </c>
+      <c r="G6">
+        <v>13.2</v>
+      </c>
+      <c r="H6">
+        <v>113.4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="F7">
+        <v>523.01</v>
+      </c>
+      <c r="G7">
+        <v>721.46600000000001</v>
+      </c>
+      <c r="H7">
+        <v>1012.6</v>
+      </c>
+      <c r="I7">
+        <v>7240</v>
+      </c>
+      <c r="J7">
+        <v>7239</v>
+      </c>
+      <c r="K7">
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.9993999999999996E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.1455200000000003</v>
+      </c>
+      <c r="G8">
+        <v>10.0235</v>
+      </c>
+      <c r="H8">
+        <v>12.1366</v>
+      </c>
+      <c r="I8">
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <v>600</v>
+      </c>
+      <c r="K8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
